--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C04A55A-6273-4C3F-8567-0FAEBBFB3B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74CE6F-B1C1-4822-A037-A79EE717FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>CODIGO</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Recuperar todos los tipos documento</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/proveedores/crear</t>
+  </si>
+  <si>
+    <t>Crear un proveedor</t>
   </si>
 </sst>
 </file>
@@ -1695,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,6 +1748,17 @@
         <v>109</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74CE6F-B1C1-4822-A037-A79EE717FD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68300B97-490F-4B0C-A520-82035900B36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>CODIGO</t>
   </si>
@@ -156,12 +156,6 @@
     <t>Coca cola pequeña</t>
   </si>
   <si>
-    <t>PRECIO DE VENTA</t>
-  </si>
-  <si>
-    <t>TIENE IVA</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -189,18 +183,12 @@
     <t>TIPO DOCUMENTO</t>
   </si>
   <si>
-    <t>INDETIFICADOR</t>
-  </si>
-  <si>
     <t>1792285707001</t>
   </si>
   <si>
     <t>tipo documentos</t>
   </si>
   <si>
-    <t>codigo</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
@@ -376,6 +364,30 @@
   </si>
   <si>
     <t>Crear un proveedor</t>
+  </si>
+  <si>
+    <t>CODIGO_CAT PK</t>
+  </si>
+  <si>
+    <t>CODIGO_UDM PK</t>
+  </si>
+  <si>
+    <t>CODIGO_CDM PK</t>
+  </si>
+  <si>
+    <t>CODIGO_PROD</t>
+  </si>
+  <si>
+    <t>IDENTIFICADOR</t>
+  </si>
+  <si>
+    <t>codigo_td</t>
+  </si>
+  <si>
+    <t>PRECIO_VENTA</t>
+  </si>
+  <si>
+    <t>TIENE_IVA</t>
   </si>
 </sst>
 </file>
@@ -495,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -515,6 +527,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -531,6 +544,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551091</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>873986</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1599F1DF-6914-78E8-CE26-A7C5996901A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8552091" y="1122589"/>
+          <a:ext cx="2207484" cy="3248751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65A163-3162-4C9A-BE49-53DC9C7716AF}">
-  <dimension ref="B2:I68"/>
+  <dimension ref="A2:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,14 +928,15 @@
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -882,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -893,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -904,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -915,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -926,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -937,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -948,18 +1011,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -967,10 +1030,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -978,14 +1042,15 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
@@ -1003,7 +1068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
@@ -1021,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="7" t="s">
         <v>21</v>
@@ -1039,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="7" t="s">
         <v>27</v>
@@ -1051,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="7" t="s">
         <v>28</v>
@@ -1063,7 +1128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
@@ -1075,7 +1140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="7" t="s">
         <v>32</v>
@@ -1087,7 +1152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -1095,33 +1160,34 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>1</v>
       </c>
@@ -1135,7 +1201,7 @@
         <v>0.58040000000000003</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2">
         <v>0.37290000000000001</v>
@@ -1147,12 +1213,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>30</v>
@@ -1161,7 +1227,7 @@
         <v>0.85</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2">
         <v>0.87360000000000004</v>
@@ -1173,12 +1239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>30</v>
@@ -1187,7 +1253,7 @@
         <v>0.95</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2">
         <v>0.89</v>
@@ -1199,12 +1265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>21</v>
@@ -1213,7 +1279,7 @@
         <v>0.8</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2">
         <v>0.7</v>
@@ -1225,120 +1291,120 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2">
         <v>992920398</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>0</v>
@@ -1352,19 +1418,19 @@
         <v>1</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D43" s="14">
         <v>45250</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1372,24 +1438,24 @@
         <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D44" s="14">
         <v>45250</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -1397,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -1474,24 +1540,24 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -1502,7 +1568,7 @@
         <v>45250.832638888889</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E55" s="15">
         <v>1</v>
@@ -1519,7 +1585,7 @@
         <v>45250.832638888889</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E56" s="15">
         <v>4</v>
@@ -1536,7 +1602,7 @@
         <v>45250.874305555553</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E57" s="15">
         <v>1</v>
@@ -1553,7 +1619,7 @@
         <v>45250.874305555553</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E58" s="15">
         <v>1</v>
@@ -1570,7 +1636,7 @@
         <v>45250.874305555553</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E59" s="15">
         <v>4</v>
@@ -1581,7 +1647,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -1589,16 +1655,16 @@
         <v>35</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -1621,7 +1687,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -1629,22 +1695,22 @@
         <v>35</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -1699,6 +1765,7 @@
     <hyperlink ref="F33" r:id="rId2" xr:uid="{F0F2978F-5E8C-4B7E-938A-5E8706869D2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1706,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1717,10 +1784,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1728,35 +1795,35 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68300B97-490F-4B0C-A520-82035900B36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942475F-1526-49DD-96ED-47202A58CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
   <si>
     <t>CODIGO</t>
   </si>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>TIENE_IVA</t>
+  </si>
+  <si>
+    <t>/productos/buscar/{subcadena}</t>
+  </si>
+  <si>
+    <t>Recupera todos los productos cuyo nombre contenga la subcadena</t>
   </si>
 </sst>
 </file>
@@ -550,16 +556,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>551091</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1027340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>873986</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>458967</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -582,7 +588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8552091" y="1122589"/>
+          <a:off x="6252483" y="768804"/>
           <a:ext cx="2207484" cy="3248751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -915,7 +921,7 @@
   <dimension ref="A2:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,6 +1832,17 @@
         <v>108</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942475F-1526-49DD-96ED-47202A58CC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1B20B-4620-4ECB-9C03-54DE88942711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
+    <workbookView xWindow="4080" yWindow="1725" windowWidth="14055" windowHeight="11280" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65A163-3162-4C9A-BE49-53DC9C7716AF}">
   <dimension ref="A2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F1B20B-4620-4ECB-9C03-54DE88942711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CCC54E-1464-4C26-955B-CE1F97B72E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1725" windowWidth="14055" windowHeight="11280" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
   <si>
     <t>CODIGO</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Recupera todos los productos cuyo nombre contenga la subcadena</t>
+  </si>
+  <si>
+    <t>/productos/crear</t>
+  </si>
+  <si>
+    <t>Crear un producto</t>
   </si>
 </sst>
 </file>
@@ -1777,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,6 +1849,17 @@
         <v>118</v>
       </c>
     </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CCC54E-1464-4C26-955B-CE1F97B72E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24332F53-7C84-4C9C-9F00-453EC35B73F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1725" windowWidth="14055" windowHeight="11280" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="123">
   <si>
     <t>CODIGO</t>
   </si>
@@ -400,6 +400,12 @@
   </si>
   <si>
     <t>Crear un producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /pedidos/registrar</t>
+  </si>
+  <si>
+    <t>Crear un pedido</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -519,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -540,6 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -556,55 +569,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1027340</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>6804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>458967</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>17055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1599F1DF-6914-78E8-CE26-A7C5996901A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6252483" y="768804"/>
-          <a:ext cx="2207484" cy="3248751"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65A163-3162-4C9A-BE49-53DC9C7716AF}">
   <dimension ref="A2:I68"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1273,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>113</v>
       </c>
@@ -1348,7 +1313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>48</v>
       </c>
@@ -1368,12 +1333,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>114</v>
       </c>
@@ -1381,7 +1347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
@@ -1389,7 +1355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>54</v>
       </c>
@@ -1397,7 +1363,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>66</v>
       </c>
@@ -1405,7 +1371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>67</v>
       </c>
@@ -1425,7 +1391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>1</v>
       </c>
@@ -1435,18 +1401,18 @@
       <c r="D43" s="14">
         <v>45250</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
         <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -1455,22 +1421,22 @@
       <c r="D44" s="14">
         <v>45250</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>1</v>
       </c>
@@ -1777,16 +1743,15 @@
     <hyperlink ref="F33" r:id="rId2" xr:uid="{F0F2978F-5E8C-4B7E-938A-5E8706869D2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,6 +1825,17 @@
         <v>120</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24332F53-7C84-4C9C-9F00-453EC35B73F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C0F16-E4BE-49E3-8F76-6F1ADF96ED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
+    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -890,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65A163-3162-4C9A-BE49-53DC9C7716AF}">
   <dimension ref="A2:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1750,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C0F16-E4BE-49E3-8F76-6F1ADF96ED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC015A-D807-450F-A403-B128EC0C01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2100" windowWidth="29040" windowHeight="15720" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t>CODIGO</t>
   </si>
@@ -406,6 +406,15 @@
   </si>
   <si>
     <t>Crear un pedido</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/pedidos/recibir</t>
+  </si>
+  <si>
+    <t>Modifica el estado del pedido y de cada detalle actualiza la cantidad recibida y el subtotal</t>
   </si>
 </sst>
 </file>
@@ -890,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D65A163-3162-4C9A-BE49-53DC9C7716AF}">
   <dimension ref="A2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -1748,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,6 +1845,17 @@
         <v>122</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_Rest_web_services_inventarios/inventarios.xlsx
+++ b/2_Rest_web_services_inventarios/inventarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_KRAKE_DEV\3_Tercer_modulo\2_Rest_web_services_inventarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC015A-D807-450F-A403-B128EC0C01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945D2EC-E1FB-4467-9346-FB18251FF337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
+    <workbookView xWindow="5655" yWindow="1125" windowWidth="14055" windowHeight="11280" activeTab="1" xr2:uid="{2AA63735-46FF-423B-8F2C-7519A2F63279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>CODIGO</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Modifica el estado del pedido y de cada detalle actualiza la cantidad recibida y el subtotal</t>
+  </si>
+  <si>
+    <t>/ventas/guardar</t>
+  </si>
+  <si>
+    <t>Registra la cabecera y detalle de las ventas, además de los movimientos respectivos en el historial de stock</t>
   </si>
 </sst>
 </file>
@@ -1757,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110634E-C7BF-4911-A74B-12DC554BBA6F}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,6 +1862,17 @@
         <v>125</v>
       </c>
     </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
